--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925C630-1E07-F643-BE5E-1122CD237F9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBF382-2590-4442-BC4A-2B5543BA378D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Austin Bergstrom</t>
+  </si>
+  <si>
+    <t>StartDateTime</t>
+  </si>
+  <si>
+    <t>EndDateTime</t>
+  </si>
+  <si>
+    <t>string:1:00 PM</t>
+  </si>
+  <si>
+    <t>DropDate_from</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -132,10 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,49 +596,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="4" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FE3E2025-F757-F24E-B108-8DC7A2F3DB65}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{FE3E2025-F757-F24E-B108-8DC7A2F3DB65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
